--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_4_modelo_regressao_app_alugueis\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9594F321-1484-4C87-9370-CEAF89A29F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17860376-8D9F-4D3C-9EE1-74D0F4E56BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodologia 5W2H" sheetId="10" r:id="rId1"/>
@@ -750,28 +750,28 @@
     <t>**How Much?**&lt;br&gt;Quanto?</t>
   </si>
   <si>
-    <t>A partir dos dados de campanhas piloto, **construir um modelo para segmentação de clientes em campanhas de marketing**</t>
-  </si>
-  <si>
-    <t>O projeto será realizado através da **criação de modelos de clusterização e classificação para a segmentação de clientes**</t>
-  </si>
-  <si>
-    <t>Em uma **empresa de delivery**</t>
-  </si>
-  <si>
     <t>**Matheus Resende** - Cientista de Dados</t>
   </si>
   <si>
-    <t>O investimento estimado para o projeto é de **6.720MU**</t>
-  </si>
-  <si>
     <t>A data de início do projeto é **01/09/2024**, com um prazo estipulado para conclusão de **30 dias**. Dessa forma, a data prevista para conclusão do projeto é **30/09/2024**</t>
   </si>
   <si>
-    <t>O objetivo é que o modelo preveja o comportamento dos consumidores e torne possível aplicá-lo a toda a base de clientes, permitindo que a empresa identifique os clientes que têm maior probabilidade de aceitar a campanha, **otimizando assim os resultados das campanhas e tornando-as altamente lucrativas**</t>
-  </si>
-  <si>
     <t>ROC-AUC</t>
+  </si>
+  <si>
+    <t>O investimento estimado para o projeto é de **R$ 50 mil**</t>
+  </si>
+  <si>
+    <t>A partir de dados históricos, **construir um modelo para prever o valor da diária de aluguel de um imóvel**</t>
+  </si>
+  <si>
+    <t>Em um **aplicativo de aluguéis**</t>
+  </si>
+  <si>
+    <t>O projeto será realizado através da **criação de um modelo de regressão para a previsão de aluguéis**</t>
+  </si>
+  <si>
+    <t>O objetivo é que o modelo preveja o valor de aluguéis, permitindo que a empresa identifique qual é o valor ideal para se cobrar na diária do imóvel, **otimizando assim o retorno com o aluguel dos imóveis**</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC53214-60BD-4FE6-89DA-2098A5F1C27A}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1219,15 +1219,15 @@
         <v>225</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1235,7 +1235,7 @@
         <v>227</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1243,7 +1243,7 @@
         <v>228</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>229</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1259,7 +1259,7 @@
         <v>230</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
         <v>231</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +2652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C8251-4A88-410D-AE97-D5E094F5545E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2678,7 +2678,7 @@
         <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>114</v>

--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_4_modelo_regressao_app_alugueis\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17860376-8D9F-4D3C-9EE1-74D0F4E56BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C1B4CE-CA83-4C44-8A5E-B39877FFD8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodologia 5W2H" sheetId="10" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="238">
   <si>
     <t>Evidente</t>
   </si>
@@ -576,9 +576,6 @@
     <t>lean</t>
   </si>
   <si>
-    <t>processed</t>
-  </si>
-  <si>
     <t>raw</t>
   </si>
   <si>
@@ -589,9 +586,6 @@
   </si>
   <si>
     <t>Dataset tratado, deixando somente as colunas importantes, sem informações redundantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dataset tratado, removendo somente as colunas realmente que não agregam valor </t>
   </si>
   <si>
     <t>Dataset criado para fazer o gráfico de correlações</t>
@@ -1195,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC53214-60BD-4FE6-89DA-2098A5F1C27A}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1208,66 +1202,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1295,19 +1289,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1315,16 +1309,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1332,16 +1326,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1349,16 +1343,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1366,16 +1360,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1383,16 +1377,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1400,16 +1394,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1417,16 +1411,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1434,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,16 +1445,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1468,16 +1462,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1485,16 +1479,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1502,16 +1496,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1519,16 +1513,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1536,16 +1530,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1553,16 +1547,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1570,16 +1564,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1587,16 +1581,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1604,16 +1598,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1621,16 +1615,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" t="s">
         <v>191</v>
-      </c>
-      <c r="C20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1638,16 +1632,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" t="s">
         <v>191</v>
-      </c>
-      <c r="C21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1659,11 +1653,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C807773B-FF7B-4C21-A018-43521299C8DA}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,7 +1679,7 @@
         <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1693,7 +1687,7 @@
         <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1701,7 +1695,7 @@
         <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1709,7 +1703,7 @@
         <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1717,7 +1711,7 @@
         <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1725,7 +1719,7 @@
         <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1733,15 +1727,7 @@
         <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2678,7 +2664,7 @@
         <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>114</v>

--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_4_modelo_regressao_app_alugueis\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C1B4CE-CA83-4C44-8A5E-B39877FFD8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58461AC-7182-4FFE-85C8-A4FD6A8A880B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="236">
   <si>
     <t>Evidente</t>
   </si>
@@ -561,9 +561,6 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>clustered</t>
-  </si>
-  <si>
     <t>deploy_classification</t>
   </si>
   <si>
@@ -595,9 +592,6 @@
   </si>
   <si>
     <t>Dataset com o resultado do deploy do modelo de classificação</t>
-  </si>
-  <si>
-    <t>Dataset após aplicar o modelo de clusterização</t>
   </si>
   <si>
     <t>Dataset após receber os pré processamentos</t>
@@ -1202,66 +1196,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1289,19 +1283,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1309,16 +1303,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1326,16 +1320,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1343,16 +1337,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1360,16 +1354,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1377,16 +1371,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1394,16 +1388,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1411,16 +1405,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1428,16 +1422,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1445,16 +1439,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1462,16 +1456,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1479,16 +1473,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1496,16 +1490,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1513,16 +1507,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1530,16 +1524,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1547,16 +1541,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1564,16 +1558,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1581,16 +1575,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1598,16 +1592,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1615,16 +1609,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" t="s">
         <v>189</v>
-      </c>
-      <c r="C20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1632,16 +1626,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" t="s">
         <v>189</v>
-      </c>
-      <c r="C21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1653,11 +1647,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C807773B-FF7B-4C21-A018-43521299C8DA}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1679,7 +1673,7 @@
         <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1695,7 +1689,7 @@
         <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1703,7 +1697,7 @@
         <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1711,7 +1705,7 @@
         <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1719,15 +1713,7 @@
         <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2664,7 +2650,7 @@
         <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>114</v>

--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,28 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_4_modelo_regressao_app_alugueis\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58461AC-7182-4FFE-85C8-A4FD6A8A880B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8921E357-3CCD-4410-89B8-5B8E8629871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodologia 5W2H" sheetId="10" r:id="rId1"/>
     <sheet name="Dicionário Data" sheetId="6" r:id="rId2"/>
     <sheet name="Dicionário Datasets" sheetId="7" r:id="rId3"/>
     <sheet name="Dicionário Stats" sheetId="8" r:id="rId4"/>
-    <sheet name="Insights Histplots" sheetId="1" r:id="rId5"/>
-    <sheet name="EDA Grupos" sheetId="2" r:id="rId6"/>
-    <sheet name="Clusters Grupos" sheetId="3" r:id="rId7"/>
-    <sheet name="Avaliação dos Modelos" sheetId="5" r:id="rId8"/>
+    <sheet name="Avaliação dos Modelos" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Avaliação dos Modelos'!$B$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Clusters Grupos'!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Avaliação dos Modelos'!$B$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dicionário Data'!$A$1:$E$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dicionário Datasets'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Dicionário Stats'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'EDA Grupos'!$A$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Insights Histplots'!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,89 +46,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="236">
-  <si>
-    <t>Evidente</t>
-  </si>
-  <si>
-    <t>Sutil</t>
-  </si>
-  <si>
-    <t>Quem tem maior escolaridade, tende a ter uma renda maior (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem tem maior escolaridade, tende a gastar mais em compras (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem tem mais idade, tende a ter uma renda maior (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem tem mais idade, tende a gastar mais em compras (o contrário também)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
   <si>
     <t>Education</t>
   </si>
   <si>
-    <t>Quem tem filhos, tende a ter a idade entre 35 e 60 anos</t>
-  </si>
-  <si>
     <t>HasChildren</t>
   </si>
   <si>
-    <t>Quem não tem filhos, tende a ter uma renda maior (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem não tem filhos, tende a fazer menos compras com desconto (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem não tem filhos, tende a visitar menos o site de compras (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem não tem filhos, tende a fazer mais compras (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem tem maior escolaridade, tende a fazer mais compras (o contrário também)</t>
-  </si>
-  <si>
     <t>AgeGroup</t>
   </si>
   <si>
-    <t>Intensidade</t>
-  </si>
-  <si>
     <t>Years_Since_Enrolled</t>
   </si>
   <si>
-    <t>Quem tem mais tempo como cliente, tende a visitar mais o site (o contrário também)</t>
-  </si>
-  <si>
-    <t>HasAcceptCmp</t>
-  </si>
-  <si>
-    <t>Quem aceitou as campanhas, tende a ter uma renda maior (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem aceitou as campanhas, tende a fazer mais compras (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem aceitou as campanhas, tende a gastar mais em compras (o contrário também)</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Quem aceitou as campanhas, tende a comprar frequentemente (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem aceitou as campanhas, tende a ser cliente há mais tempo (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem aceitou as campanhas, tende a aceitar uma nova companha (o contrário também)</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -144,9 +69,6 @@
     <t>NumTotalPurchases</t>
   </si>
   <si>
-    <t>Quem não tem filhos, tende a gastar mais em compras (o contrário também)</t>
-  </si>
-  <si>
     <t>MntTotal</t>
   </si>
   <si>
@@ -159,261 +81,15 @@
     <t>Recency</t>
   </si>
   <si>
-    <t>Years_Since_Enrrolled</t>
-  </si>
-  <si>
     <t>AcceptedCmpTotal</t>
   </si>
   <si>
-    <t>Hue Column</t>
-  </si>
-  <si>
-    <t>Insight</t>
-  </si>
-  <si>
-    <t>Grupo 1</t>
-  </si>
-  <si>
-    <t>Grupo 2</t>
-  </si>
-  <si>
-    <t>Renda média alta</t>
-  </si>
-  <si>
-    <t>Renda média baixa</t>
-  </si>
-  <si>
-    <t>Não tem filhos</t>
-  </si>
-  <si>
-    <t>Tem filhos</t>
-  </si>
-  <si>
-    <t>Gasta mais em compras</t>
-  </si>
-  <si>
-    <t>Faz mais compras</t>
-  </si>
-  <si>
-    <t>Faz menos compras</t>
-  </si>
-  <si>
-    <t>Gasta menos em compras</t>
-  </si>
-  <si>
-    <t>Faz menos compras com desconto</t>
-  </si>
-  <si>
-    <t>Faz mais compras com desconto</t>
-  </si>
-  <si>
-    <t>Visita menos o site</t>
-  </si>
-  <si>
-    <t>Visita mais o site</t>
-  </si>
-  <si>
-    <t>Tem maior escolaridade</t>
-  </si>
-  <si>
-    <t>Tem menor escolaridade</t>
-  </si>
-  <si>
-    <t>Aceita mais campanhas</t>
-  </si>
-  <si>
-    <t>Aceita menos campanhas</t>
-  </si>
-  <si>
-    <t>Compra com mais frequência</t>
-  </si>
-  <si>
-    <t>Compra com menos frequência</t>
-  </si>
-  <si>
-    <t>Possui um parceiro</t>
-  </si>
-  <si>
-    <t>Não possui um parceiro</t>
-  </si>
-  <si>
-    <t>Qualitativo</t>
-  </si>
-  <si>
-    <t>Quantitativo</t>
-  </si>
-  <si>
-    <t>Renda &gt;= 51287,00</t>
-  </si>
-  <si>
-    <t>Compras &gt;= 12</t>
-  </si>
-  <si>
-    <t>Gastos em compras &gt;= 397,00</t>
-  </si>
-  <si>
-    <t>Filhos = 0</t>
-  </si>
-  <si>
-    <t>Compras com desconto &lt;= 2</t>
-  </si>
-  <si>
-    <t>Visitas ao site &lt;= 6</t>
-  </si>
-  <si>
-    <t>Escolaridade != Basic</t>
-  </si>
-  <si>
-    <t>Aceitou campanhas = 1</t>
-  </si>
-  <si>
-    <t>Dias como cliente &gt;= 356</t>
-  </si>
-  <si>
-    <t>Estado civil = Single</t>
-  </si>
-  <si>
-    <t>Compras &lt; 12</t>
-  </si>
-  <si>
-    <t>Renda &lt; 51287,00</t>
-  </si>
-  <si>
-    <t>Gastos em compras &lt; 397,00</t>
-  </si>
-  <si>
-    <t>Filhos != 0</t>
-  </si>
-  <si>
-    <t>Compras com desconto &gt; 2</t>
-  </si>
-  <si>
-    <t>Visitas ao site &gt; 6</t>
-  </si>
-  <si>
-    <t>Escolaridade = Basic</t>
-  </si>
-  <si>
-    <t>Aceitou campanhas = 0</t>
-  </si>
-  <si>
-    <t>Frequência de compras &gt; 49</t>
-  </si>
-  <si>
-    <t>Frequência de compras &lt;= 49</t>
-  </si>
-  <si>
-    <t>Dias como cliente &lt; 356</t>
-  </si>
-  <si>
-    <t>Estado civil = Partner</t>
-  </si>
-  <si>
-    <t>Cluster 0</t>
-  </si>
-  <si>
-    <t>Cluster 1</t>
-  </si>
-  <si>
-    <t>Cluster 2</t>
-  </si>
-  <si>
-    <t>Renda alta</t>
-  </si>
-  <si>
-    <t>Renda média</t>
-  </si>
-  <si>
-    <t>Renda baixa</t>
-  </si>
-  <si>
-    <t>É cliente há mais tempo</t>
-  </si>
-  <si>
-    <t>É cliente há menos tempo</t>
-  </si>
-  <si>
-    <t>Faz muitas compras</t>
-  </si>
-  <si>
-    <t>Faz poucas compras</t>
-  </si>
-  <si>
-    <t>Gasta muito em compras</t>
-  </si>
-  <si>
-    <t>Gasta pouco em compras</t>
-  </si>
-  <si>
-    <t>Gasta moderadamente em compras</t>
-  </si>
-  <si>
-    <t>Dificilmente aceita campanhas</t>
-  </si>
-  <si>
-    <t>Aceita campanhas facilmente</t>
-  </si>
-  <si>
-    <t>Pode aceitar campanhas</t>
-  </si>
-  <si>
-    <t>Provavelmente não tem filhos</t>
-  </si>
-  <si>
-    <t>Provavelmente tem filhos</t>
-  </si>
-  <si>
-    <t>Faz muitas compras com desconto</t>
-  </si>
-  <si>
-    <t>Faz algumas compras com desconto</t>
-  </si>
-  <si>
-    <t>Faz poucas compras com desconto</t>
-  </si>
-  <si>
-    <t>Visita pouco o site</t>
-  </si>
-  <si>
-    <t>Visita muito o site</t>
-  </si>
-  <si>
-    <t>Único grupo que tem pessoas com escolaridade baixa</t>
-  </si>
-  <si>
-    <t>Alta escolaridade</t>
-  </si>
-  <si>
     <t>Posição</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>Average Precision</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>LogisticRegression</t>
-  </si>
-  <si>
-    <t>KNNClassifier</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier</t>
-  </si>
-  <si>
-    <t>DummyClassifier</t>
-  </si>
-  <si>
     <t>Quanto maior melhor</t>
   </si>
   <si>
@@ -561,12 +237,6 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>deploy_classification</t>
-  </si>
-  <si>
-    <t>deployed_classification</t>
-  </si>
-  <si>
     <t>dummies</t>
   </si>
   <si>
@@ -588,12 +258,6 @@
     <t>Dataset criado para fazer o gráfico de correlações</t>
   </si>
   <si>
-    <t>Dataset para testar o deploy do modelo de classificação</t>
-  </si>
-  <si>
-    <t>Dataset com o resultado do deploy do modelo de classificação</t>
-  </si>
-  <si>
     <t>Dataset após receber os pré processamentos</t>
   </si>
   <si>
@@ -744,9 +408,6 @@
     <t>A data de início do projeto é **01/09/2024**, com um prazo estipulado para conclusão de **30 dias**. Dessa forma, a data prevista para conclusão do projeto é **30/09/2024**</t>
   </si>
   <si>
-    <t>ROC-AUC</t>
-  </si>
-  <si>
     <t>O investimento estimado para o projeto é de **R$ 50 mil**</t>
   </si>
   <si>
@@ -760,13 +421,28 @@
   </si>
   <si>
     <t>O objetivo é que o modelo preveja o valor de aluguéis, permitindo que a empresa identifique qual é o valor ideal para se cobrar na diária do imóvel, **otimizando assim o retorno com o aluguel dos imóveis**</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>R²</t>
+  </si>
+  <si>
+    <t>DecisionTreeRegressor</t>
+  </si>
+  <si>
+    <t>DummyRegressor</t>
+  </si>
+  <si>
+    <t>LinearRegression</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,12 +454,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -821,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,9 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,66 +863,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>222</v>
+        <v>112</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>223</v>
+        <v>113</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>229</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1283,19 +950,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1303,16 +970,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1320,16 +987,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1337,16 +1004,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1354,16 +1021,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1371,16 +1038,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1388,16 +1055,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1405,16 +1072,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1422,16 +1089,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1439,16 +1106,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1456,16 +1123,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1473,16 +1140,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1490,16 +1157,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1507,16 +1174,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1524,16 +1191,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1541,16 +1208,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1558,16 +1225,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1575,16 +1242,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1592,16 +1259,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1609,16 +1276,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1626,16 +1293,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1647,11 +1314,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C807773B-FF7B-4C21-A018-43521299C8DA}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1662,58 +1329,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1740,211 +1391,211 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1955,823 +1606,89 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126542E7-60CE-4DA2-940D-E34DD521D00C}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C8251-4A88-410D-AE97-D5E094F5545E}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="95.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D22" xr:uid="{126542E7-60CE-4DA2-940D-E34DD521D00C}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFF9EB2-3B62-49D0-8DB1-0D75070A7105}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="8"/>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F8A8AC-C8D4-48BC-BF06-1DD119FD1E35}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C8251-4A88-410D-AE97-D5E094F5545E}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
-    <col min="2" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,22 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_4_modelo_regressao_app_alugueis\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8921E357-3CCD-4410-89B8-5B8E8629871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31044FD-4624-4BE9-8A0B-2BDE104006E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodologia 5W2H" sheetId="10" r:id="rId1"/>
-    <sheet name="Dicionário Data" sheetId="6" r:id="rId2"/>
-    <sheet name="Dicionário Datasets" sheetId="7" r:id="rId3"/>
-    <sheet name="Dicionário Stats" sheetId="8" r:id="rId4"/>
-    <sheet name="Avaliação dos Modelos" sheetId="5" r:id="rId5"/>
+    <sheet name="Dicionário Datasets" sheetId="7" r:id="rId2"/>
+    <sheet name="Dicionário Stats" sheetId="8" r:id="rId3"/>
+    <sheet name="Avaliação dos Modelos" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Avaliação dos Modelos'!$B$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dicionário Data'!$A$1:$E$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dicionário Datasets'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Dicionário Stats'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Avaliação dos Modelos'!$B$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dicionário Datasets'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dicionário Stats'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,43 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>HasChildren</t>
-  </si>
-  <si>
-    <t>AgeGroup</t>
-  </si>
-  <si>
-    <t>Years_Since_Enrolled</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>NumTotalPurchases</t>
-  </si>
-  <si>
-    <t>MntTotal</t>
-  </si>
-  <si>
-    <t>NumDealsPurchases</t>
-  </si>
-  <si>
-    <t>NumWebVisitsMonth</t>
-  </si>
-  <si>
-    <t>Recency</t>
-  </si>
-  <si>
-    <t>AcceptedCmpTotal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>Posição</t>
   </si>
@@ -261,120 +223,6 @@
     <t>Dataset após receber os pré processamentos</t>
   </si>
   <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Coluna</t>
-  </si>
-  <si>
-    <t>Tipo de Dado</t>
-  </si>
-  <si>
-    <t>Dados pessoais</t>
-  </si>
-  <si>
-    <t>Dados das compras</t>
-  </si>
-  <si>
-    <t>Dados das campanhas</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Marital_Status</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Complain</t>
-  </si>
-  <si>
-    <t>Days_Since_Enrolled</t>
-  </si>
-  <si>
-    <t>MntRegularProds</t>
-  </si>
-  <si>
-    <t>MntGoldProds</t>
-  </si>
-  <si>
-    <t>HasAcceptedCmp</t>
-  </si>
-  <si>
-    <t>Response (Target)</t>
-  </si>
-  <si>
-    <t>Nível de educação do cliente</t>
-  </si>
-  <si>
-    <t>Se o cliente tem parceiro</t>
-  </si>
-  <si>
-    <t>Número de filhos do cliente</t>
-  </si>
-  <si>
-    <t>1 se o cliente tem filhos, 0 caso contrário</t>
-  </si>
-  <si>
-    <t>Idade do cliente</t>
-  </si>
-  <si>
-    <t>Faixa de idade do cliente</t>
-  </si>
-  <si>
-    <t>Renda anual da família do cliente</t>
-  </si>
-  <si>
-    <t>Número de dias desde a última compra do cliente</t>
-  </si>
-  <si>
-    <t>1 se o cliente reclamou nos últimos 2 anos, 0 caso contrário</t>
-  </si>
-  <si>
-    <t>Dias desde o cadastro do cliente</t>
-  </si>
-  <si>
-    <t>Anos desde o cadastro do cliente</t>
-  </si>
-  <si>
-    <t>Número de compras feitas com desconto</t>
-  </si>
-  <si>
-    <t>Número de visitas ao site da empresa no último mês</t>
-  </si>
-  <si>
-    <t>Número do total de compras do cliente</t>
-  </si>
-  <si>
-    <t>Valor gasto em produtos regulares nos últimos 2 anos</t>
-  </si>
-  <si>
-    <t>Valor gasto em produtos gold nos últimos 2 anos</t>
-  </si>
-  <si>
-    <t>Valor total gasto em produtos (gold + regulares) nos últimos 2 anos</t>
-  </si>
-  <si>
-    <t>Total de campanhas aceitas pelo cliente</t>
-  </si>
-  <si>
-    <t>1 se o cliente aceitou a oferta de alguma campanha, 0 caso contrário</t>
-  </si>
-  <si>
-    <t>1 se o cliente aceitou a oferta na última campanha, 0 caso contrário</t>
-  </si>
-  <si>
     <t>**Questionamento**</t>
   </si>
   <si>
@@ -436,6 +284,12 @@
   </si>
   <si>
     <t>LinearRegression</t>
+  </si>
+  <si>
+    <t>Dataset inicial do projeto apenas com as 1000 primeiras linhas para análise rápida</t>
+  </si>
+  <si>
+    <t>preview</t>
   </si>
 </sst>
 </file>
@@ -850,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC53214-60BD-4FE6-89DA-2098A5F1C27A}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -863,66 +717,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -931,394 +785,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FF411B-E20F-4AA6-B9F4-00E2A513EF8A}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C807773B-FF7B-4C21-A018-43521299C8DA}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E25" xr:uid="{49FF411B-E20F-4AA6-B9F4-00E2A513EF8A}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C807773B-FF7B-4C21-A018-43521299C8DA}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,42 +801,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1374,7 +854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955BE73F-E79D-4EF1-877A-FFCD79D87FF0}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -1391,211 +871,211 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1605,11 +1085,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C8251-4A88-410D-AE97-D5E094F5545E}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -1623,30 +1103,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,13 +1134,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1668,13 +1148,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1682,13 +1162,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
